--- a/oster_data_2022/enz_act.xlsx
+++ b/oster_data_2022/enz_act.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant species coexistence\annalisys\oster_data_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant species coexistence\functions_and_coex\oster_data_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F853C-928D-4FFC-8CDD-1E45169743B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A235395-D804-48C3-BF31-54E79D622D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -428,16 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I542"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="5" width="11.453125" style="5"/>
-    <col min="6" max="9" width="11.453125" style="2"/>
+    <col min="6" max="7" width="11.453125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1464,7 +1464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>0.47299999999999998</v>
       </c>
@@ -1484,10 +1484,8 @@
       <c r="G49" s="2">
         <v>2</v>
       </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>0.1547</v>
       </c>
@@ -1506,9 +1504,8 @@
       <c r="G50" s="2">
         <v>2</v>
       </c>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>0.13089999999999999</v>
       </c>
@@ -1527,9 +1524,8 @@
       <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>0.13170000000000001</v>
       </c>
@@ -1549,9 +1545,8 @@
       <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>0.14000000000000001</v>
       </c>
@@ -1571,9 +1566,8 @@
       <c r="G53" s="2">
         <v>2</v>
       </c>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>0.13819999999999999</v>
       </c>
@@ -1593,9 +1587,8 @@
       <c r="G54" s="2">
         <v>2</v>
       </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>0.13439999999999999</v>
       </c>
@@ -1615,9 +1608,8 @@
       <c r="G55" s="2">
         <v>2</v>
       </c>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>0.11940000000000001</v>
       </c>
@@ -1637,9 +1629,8 @@
       <c r="G56" s="2">
         <v>2</v>
       </c>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>0.12039999999999999</v>
       </c>
@@ -1659,9 +1650,8 @@
       <c r="G57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>0.1459</v>
       </c>
@@ -1681,9 +1671,8 @@
       <c r="G58" s="2">
         <v>2</v>
       </c>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>0.13450000000000001</v>
       </c>
@@ -1704,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>0.50319999999999998</v>
       </c>
@@ -1724,10 +1713,8 @@
       <c r="G60" s="2">
         <v>2</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>0.4052</v>
       </c>
@@ -1747,10 +1734,8 @@
       <c r="G61" s="2">
         <v>2</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>0.41599999999999998</v>
       </c>
@@ -1770,10 +1755,8 @@
       <c r="G62" s="2">
         <v>2</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>0.4088</v>
       </c>
@@ -1793,10 +1776,8 @@
       <c r="G63" s="2">
         <v>2</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>0.49299999999999999</v>
       </c>
@@ -1816,10 +1797,8 @@
       <c r="G64" s="2">
         <v>2</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>0.49320000000000003</v>
       </c>
@@ -1839,10 +1818,8 @@
       <c r="G65" s="2">
         <v>2</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>0.3831</v>
       </c>
@@ -1862,10 +1839,8 @@
       <c r="G66" s="2">
         <v>2</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>0.41589999999999999</v>
       </c>
@@ -1885,10 +1860,8 @@
       <c r="G67" s="2">
         <v>2</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>0.43430000000000002</v>
       </c>
@@ -1908,10 +1881,8 @@
       <c r="G68" s="2">
         <v>2</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>0.63849999999999996</v>
       </c>
@@ -1931,10 +1902,8 @@
       <c r="G69" s="2">
         <v>2</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>0.41760000000000003</v>
       </c>
@@ -1954,10 +1923,8 @@
       <c r="G70" s="2">
         <v>2</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>0.44400000000000001</v>
       </c>
@@ -1977,10 +1944,8 @@
       <c r="G71" s="2">
         <v>2</v>
       </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>0.31159999999999999</v>
       </c>
@@ -2000,10 +1965,8 @@
       <c r="G72" s="2">
         <v>2</v>
       </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>0.30120000000000002</v>
       </c>
@@ -2023,10 +1986,8 @@
       <c r="G73" s="2">
         <v>2</v>
       </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>0.44240000000000002</v>
       </c>
@@ -2046,10 +2007,8 @@
       <c r="G74" s="2">
         <v>2</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>0.42030000000000001</v>
       </c>
@@ -2069,10 +2028,8 @@
       <c r="G75" s="2">
         <v>2</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>0.46479999999999999</v>
       </c>
@@ -2092,10 +2049,8 @@
       <c r="G76" s="2">
         <v>2</v>
       </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>0.52980000000000005</v>
       </c>
@@ -2115,10 +2070,8 @@
       <c r="G77" s="2">
         <v>2</v>
       </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>0.14169999999999999</v>
       </c>
@@ -2138,10 +2091,8 @@
       <c r="G78" s="2">
         <v>2</v>
       </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>0.14319999999999999</v>
       </c>
@@ -2161,10 +2112,8 @@
       <c r="G79" s="2">
         <v>2</v>
       </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>0.1255</v>
       </c>
@@ -2184,10 +2133,8 @@
       <c r="G80" s="2">
         <v>2</v>
       </c>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>0.13819999999999999</v>
       </c>
@@ -2207,10 +2154,8 @@
       <c r="G81" s="2">
         <v>2</v>
       </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>0.1406</v>
       </c>
@@ -2230,10 +2175,8 @@
       <c r="G82" s="2">
         <v>2</v>
       </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>0.12970000000000001</v>
       </c>
@@ -2253,10 +2196,8 @@
       <c r="G83" s="2">
         <v>2</v>
       </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>0.12330000000000001</v>
       </c>
@@ -2276,10 +2217,8 @@
       <c r="G84" s="2">
         <v>2</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>0.13450000000000001</v>
       </c>
@@ -2299,10 +2238,8 @@
       <c r="G85" s="2">
         <v>2</v>
       </c>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>0.1321</v>
       </c>
@@ -2322,10 +2259,8 @@
       <c r="G86" s="2">
         <v>2</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>0.1336</v>
       </c>
@@ -2345,10 +2280,8 @@
       <c r="G87" s="2">
         <v>2</v>
       </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>0.14019999999999999</v>
       </c>
@@ -2368,10 +2301,8 @@
       <c r="G88" s="2">
         <v>2</v>
       </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>0.13650000000000001</v>
       </c>
@@ -2391,10 +2322,8 @@
       <c r="G89" s="2">
         <v>2</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>0.11840000000000001</v>
       </c>
@@ -2414,10 +2343,8 @@
       <c r="G90" s="2">
         <v>2</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>0.12479999999999999</v>
       </c>
@@ -2437,10 +2364,8 @@
       <c r="G91" s="2">
         <v>2</v>
       </c>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>0.13489999999999999</v>
       </c>
@@ -2460,10 +2385,8 @@
       <c r="G92" s="2">
         <v>2</v>
       </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>0.1303</v>
       </c>
@@ -2483,10 +2406,8 @@
       <c r="G93" s="2">
         <v>2</v>
       </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>0.13980000000000001</v>
       </c>
@@ -2506,10 +2427,8 @@
       <c r="G94" s="2">
         <v>2</v>
       </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>0.15340000000000001</v>
       </c>
@@ -2529,10 +2448,8 @@
       <c r="G95" s="2">
         <v>2</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>4.8399999999999999E-2</v>
       </c>
@@ -2554,10 +2471,8 @@
       <c r="G96" s="2">
         <v>3</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
@@ -2579,10 +2494,8 @@
       <c r="G97" s="2">
         <v>3</v>
       </c>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>0.12590000000000001</v>
       </c>
@@ -2604,10 +2517,8 @@
       <c r="G98" s="2">
         <v>3</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>0.2082</v>
       </c>
@@ -2629,10 +2540,8 @@
       <c r="G99" s="2">
         <v>3</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>0.3523</v>
       </c>
@@ -2654,10 +2563,8 @@
       <c r="G100" s="2">
         <v>3</v>
       </c>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>0.65549999999999997</v>
       </c>
@@ -2679,10 +2586,8 @@
       <c r="G101" s="2">
         <v>3</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>0.93669999999999998</v>
       </c>
@@ -2704,10 +2609,8 @@
       <c r="G102" s="2">
         <v>3</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>1.5407999999999999</v>
       </c>
@@ -2729,10 +2632,8 @@
       <c r="G103" s="2">
         <v>3</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>1.9564999999999999</v>
       </c>
@@ -2754,10 +2655,8 @@
       <c r="G104" s="2">
         <v>3</v>
       </c>
-      <c r="H104" s="1"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>0.45639999999999997</v>
       </c>
@@ -2776,10 +2675,8 @@
       <c r="G105" s="2">
         <v>3</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>0.503</v>
       </c>
@@ -2798,10 +2695,8 @@
       <c r="G106" s="2">
         <v>3</v>
       </c>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>0.52569999999999995</v>
       </c>
@@ -2821,10 +2716,8 @@
       <c r="G107" s="2">
         <v>3</v>
       </c>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>0.5776</v>
       </c>
@@ -2844,10 +2737,8 @@
       <c r="G108" s="2">
         <v>3</v>
       </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>0.53569999999999995</v>
       </c>
@@ -2867,10 +2758,8 @@
       <c r="G109" s="2">
         <v>3</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>0.47160000000000002</v>
       </c>
@@ -2890,10 +2779,8 @@
       <c r="G110" s="2">
         <v>3</v>
       </c>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>0.54079999999999995</v>
       </c>
@@ -2913,10 +2800,8 @@
       <c r="G111" s="2">
         <v>3</v>
       </c>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>0.39939999999999998</v>
       </c>
@@ -2936,10 +2821,8 @@
       <c r="G112" s="2">
         <v>3</v>
       </c>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>0.49270000000000003</v>
       </c>
@@ -2959,10 +2842,8 @@
       <c r="G113" s="2">
         <v>3</v>
       </c>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>0.54379999999999995</v>
       </c>
@@ -2982,10 +2863,8 @@
       <c r="G114" s="2">
         <v>3</v>
       </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>0.34849999999999998</v>
       </c>
@@ -3005,10 +2884,8 @@
       <c r="G115" s="2">
         <v>3</v>
       </c>
-      <c r="H115" s="3"/>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>0.32569999999999999</v>
       </c>
@@ -3028,10 +2905,8 @@
       <c r="G116" s="2">
         <v>3</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>0.48330000000000001</v>
       </c>
@@ -3051,10 +2926,8 @@
       <c r="G117" s="2">
         <v>3</v>
       </c>
-      <c r="H117" s="3"/>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>0.52629999999999999</v>
       </c>
@@ -3074,10 +2947,8 @@
       <c r="G118" s="2">
         <v>3</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>0.49769999999999998</v>
       </c>
@@ -3097,10 +2968,8 @@
       <c r="G119" s="2">
         <v>3</v>
       </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>0.40100000000000002</v>
       </c>
@@ -3120,10 +2989,8 @@
       <c r="G120" s="2">
         <v>3</v>
       </c>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>0.56020000000000003</v>
       </c>
@@ -3143,10 +3010,8 @@
       <c r="G121" s="2">
         <v>3</v>
       </c>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>0.4108</v>
       </c>
@@ -3166,10 +3031,8 @@
       <c r="G122" s="2">
         <v>3</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>0.47810000000000002</v>
       </c>
@@ -3189,10 +3052,8 @@
       <c r="G123" s="2">
         <v>3</v>
       </c>
-      <c r="H123" s="3"/>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>0.4839</v>
       </c>
@@ -3212,10 +3073,8 @@
       <c r="G124" s="2">
         <v>3</v>
       </c>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>0.47299999999999998</v>
       </c>
@@ -3235,10 +3094,8 @@
       <c r="G125" s="2">
         <v>3</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>0.48049999999999998</v>
       </c>
@@ -3258,10 +3115,8 @@
       <c r="G126" s="2">
         <v>3</v>
       </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>0.13639999999999999</v>
       </c>
@@ -3280,10 +3135,8 @@
       <c r="G127" s="2">
         <v>3</v>
       </c>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>0.13489999999999999</v>
       </c>
@@ -3302,10 +3155,8 @@
       <c r="G128" s="2">
         <v>3</v>
       </c>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>0.1419</v>
       </c>
@@ -3325,10 +3176,8 @@
       <c r="G129" s="2">
         <v>3</v>
       </c>
-      <c r="H129" s="3"/>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>0.1444</v>
       </c>
@@ -3348,10 +3197,8 @@
       <c r="G130" s="2">
         <v>3</v>
       </c>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>0.1419</v>
       </c>
@@ -3371,10 +3218,8 @@
       <c r="G131" s="2">
         <v>3</v>
       </c>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>0.13</v>
       </c>
@@ -3394,10 +3239,8 @@
       <c r="G132" s="2">
         <v>3</v>
       </c>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>0.1467</v>
       </c>
@@ -3417,10 +3260,8 @@
       <c r="G133" s="2">
         <v>3</v>
       </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>0.1197</v>
       </c>
@@ -3440,10 +3281,8 @@
       <c r="G134" s="2">
         <v>3</v>
       </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>0.14249999999999999</v>
       </c>
@@ -3463,10 +3302,8 @@
       <c r="G135" s="2">
         <v>3</v>
       </c>
-      <c r="H135" s="3"/>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>0.14710000000000001</v>
       </c>
@@ -3486,10 +3323,8 @@
       <c r="G136" s="2">
         <v>3</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>0.1142</v>
       </c>
@@ -3510,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>0.1153</v>
       </c>
@@ -3531,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>0.14399999999999999</v>
       </c>
@@ -3551,10 +3386,8 @@
       <c r="G139" s="2">
         <v>3</v>
       </c>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>0.1389</v>
       </c>
@@ -3574,9 +3407,8 @@
       <c r="G140" s="2">
         <v>3</v>
       </c>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>0.13730000000000001</v>
       </c>
@@ -3596,9 +3428,8 @@
       <c r="G141" s="2">
         <v>3</v>
       </c>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>0.1293</v>
       </c>
@@ -3618,9 +3449,8 @@
       <c r="G142" s="2">
         <v>3</v>
       </c>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>0.14130000000000001</v>
       </c>
@@ -3640,9 +3470,8 @@
       <c r="G143" s="2">
         <v>3</v>
       </c>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>0.12809999999999999</v>
       </c>
@@ -3662,9 +3491,8 @@
       <c r="G144" s="2">
         <v>3</v>
       </c>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>0.13400000000000001</v>
       </c>
@@ -3684,9 +3512,8 @@
       <c r="G145" s="2">
         <v>3</v>
       </c>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>0.1421</v>
       </c>
@@ -3706,9 +3533,8 @@
       <c r="G146" s="2">
         <v>3</v>
       </c>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>0.13789999999999999</v>
       </c>
@@ -3728,9 +3554,8 @@
       <c r="G147" s="2">
         <v>3</v>
       </c>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>0.13370000000000001</v>
       </c>
@@ -3750,9 +3575,8 @@
       <c r="G148" s="2">
         <v>3</v>
       </c>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>0.36109999999999998</v>
       </c>
@@ -3771,10 +3595,8 @@
       <c r="G149" s="2">
         <v>3</v>
       </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>0.32419999999999999</v>
       </c>
@@ -3793,10 +3615,8 @@
       <c r="G150" s="2">
         <v>3</v>
       </c>
-      <c r="H150" s="3"/>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>0.3533</v>
       </c>
@@ -3816,10 +3636,8 @@
       <c r="G151" s="2">
         <v>3</v>
       </c>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>0.36380000000000001</v>
       </c>
@@ -3839,10 +3657,8 @@
       <c r="G152" s="2">
         <v>3</v>
       </c>
-      <c r="H152" s="3"/>
-      <c r="I152" s="3"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>0.2681</v>
       </c>
@@ -3862,10 +3678,8 @@
       <c r="G153" s="2">
         <v>3</v>
       </c>
-      <c r="H153" s="3"/>
-      <c r="I153" s="3"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>0.27679999999999999</v>
       </c>
@@ -3885,10 +3699,8 @@
       <c r="G154" s="2">
         <v>3</v>
       </c>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>0.32619999999999999</v>
       </c>
@@ -3908,10 +3720,8 @@
       <c r="G155" s="2">
         <v>3</v>
       </c>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>0.3644</v>
       </c>
@@ -3931,10 +3741,8 @@
       <c r="G156" s="2">
         <v>3</v>
       </c>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>0.3473</v>
       </c>
@@ -3954,10 +3762,8 @@
       <c r="G157" s="2">
         <v>3</v>
       </c>
-      <c r="H157" s="3"/>
-      <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>0.38490000000000002</v>
       </c>
@@ -3977,10 +3783,8 @@
       <c r="G158" s="2">
         <v>3</v>
       </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>0.37419999999999998</v>
       </c>
@@ -3999,10 +3803,8 @@
       <c r="G159" s="2">
         <v>3</v>
       </c>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>0.35849999999999999</v>
       </c>
@@ -4021,10 +3823,8 @@
       <c r="G160" s="2">
         <v>3</v>
       </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>0.34139999999999998</v>
       </c>
@@ -4044,10 +3844,8 @@
       <c r="G161" s="2">
         <v>3</v>
       </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>0.35639999999999999</v>
       </c>
@@ -4067,10 +3865,8 @@
       <c r="G162" s="2">
         <v>3</v>
       </c>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>0.36130000000000001</v>
       </c>
@@ -4090,10 +3886,8 @@
       <c r="G163" s="2">
         <v>3</v>
       </c>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>0.35049999999999998</v>
       </c>
@@ -4113,10 +3907,8 @@
       <c r="G164" s="2">
         <v>3</v>
       </c>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>0.36270000000000002</v>
       </c>
@@ -4136,10 +3928,8 @@
       <c r="G165" s="2">
         <v>3</v>
       </c>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>0.32450000000000001</v>
       </c>
@@ -4159,10 +3949,8 @@
       <c r="G166" s="2">
         <v>3</v>
       </c>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>0.40010000000000001</v>
       </c>
@@ -4182,10 +3970,8 @@
       <c r="G167" s="2">
         <v>3</v>
       </c>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>0.34720000000000001</v>
       </c>
@@ -4205,10 +3991,8 @@
       <c r="G168" s="2">
         <v>3</v>
       </c>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>0.1133</v>
       </c>
@@ -4227,9 +4011,8 @@
       <c r="G169" s="2">
         <v>3</v>
       </c>
-      <c r="H169" s="3"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>0.1138</v>
       </c>
@@ -4248,9 +4031,8 @@
       <c r="G170" s="2">
         <v>3</v>
       </c>
-      <c r="H170" s="3"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>0.1285</v>
       </c>
@@ -4270,9 +4052,8 @@
       <c r="G171" s="2">
         <v>3</v>
       </c>
-      <c r="H171" s="3"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>0.13</v>
       </c>
@@ -4292,9 +4073,8 @@
       <c r="G172" s="2">
         <v>3</v>
       </c>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>0.12790000000000001</v>
       </c>
@@ -4314,9 +4094,8 @@
       <c r="G173" s="2">
         <v>3</v>
       </c>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>0.106</v>
       </c>
@@ -4336,9 +4115,8 @@
       <c r="G174" s="2">
         <v>3</v>
       </c>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>0.1158</v>
       </c>
@@ -4358,9 +4136,8 @@
       <c r="G175" s="2">
         <v>3</v>
       </c>
-      <c r="H175" s="3"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>0.1202</v>
       </c>
@@ -4380,9 +4157,8 @@
       <c r="G176" s="2">
         <v>3</v>
       </c>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>0.1258</v>
       </c>
@@ -4402,9 +4178,8 @@
       <c r="G177" s="2">
         <v>3</v>
       </c>
-      <c r="H177" s="3"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>0.1288</v>
       </c>
@@ -4424,9 +4199,8 @@
       <c r="G178" s="2">
         <v>3</v>
       </c>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>0.12590000000000001</v>
       </c>
@@ -4446,9 +4220,8 @@
       <c r="G179" s="2">
         <v>3</v>
       </c>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>0.1366</v>
       </c>
@@ -4468,9 +4241,8 @@
       <c r="G180" s="2">
         <v>3</v>
       </c>
-      <c r="H180" s="3"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>0.12239999999999999</v>
       </c>
@@ -4490,9 +4262,8 @@
       <c r="G181" s="2">
         <v>3</v>
       </c>
-      <c r="H181" s="3"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>0.1201</v>
       </c>
@@ -4512,9 +4283,8 @@
       <c r="G182" s="2">
         <v>3</v>
       </c>
-      <c r="H182" s="3"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>0.1208</v>
       </c>
@@ -4534,9 +4304,8 @@
       <c r="G183" s="2">
         <v>3</v>
       </c>
-      <c r="H183" s="3"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>0.1174</v>
       </c>
@@ -4556,9 +4325,8 @@
       <c r="G184" s="2">
         <v>3</v>
       </c>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>0.1242</v>
       </c>
@@ -4578,9 +4346,8 @@
       <c r="G185" s="2">
         <v>3</v>
       </c>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>0.121</v>
       </c>
@@ -4600,9 +4367,8 @@
       <c r="G186" s="2">
         <v>3</v>
       </c>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>0.1234</v>
       </c>
@@ -4622,9 +4388,8 @@
       <c r="G187" s="2">
         <v>3</v>
       </c>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>0.1187</v>
       </c>
@@ -4644,9 +4409,8 @@
       <c r="G188" s="2">
         <v>3</v>
       </c>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>4.9000000000000002E-2</v>
       </c>
@@ -4669,7 +4433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>0.10059999999999999</v>
       </c>
@@ -4691,9 +4455,8 @@
       <c r="G190" s="3">
         <v>4</v>
       </c>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>0.1391</v>
       </c>
@@ -4715,9 +4478,8 @@
       <c r="G191" s="3">
         <v>4</v>
       </c>
-      <c r="I191" s="3"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>0.23780000000000001</v>
       </c>
@@ -4739,9 +4501,8 @@
       <c r="G192" s="3">
         <v>4</v>
       </c>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>0.40500000000000003</v>
       </c>
@@ -4763,9 +4524,8 @@
       <c r="G193" s="3">
         <v>4</v>
       </c>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>0.75319999999999998</v>
       </c>
@@ -4787,9 +4547,8 @@
       <c r="G194" s="3">
         <v>4</v>
       </c>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>1.1136999999999999</v>
       </c>
@@ -4811,9 +4570,8 @@
       <c r="G195" s="3">
         <v>4</v>
       </c>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>1.7982</v>
       </c>
@@ -4835,9 +4593,8 @@
       <c r="G196" s="3">
         <v>4</v>
       </c>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>2.3325</v>
       </c>
@@ -4859,9 +4616,8 @@
       <c r="G197" s="3">
         <v>4</v>
       </c>
-      <c r="I197" s="3"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>0.2964</v>
       </c>
@@ -4880,9 +4636,8 @@
       <c r="G198" s="3">
         <v>4</v>
       </c>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>0.40460000000000002</v>
       </c>
@@ -4901,9 +4656,8 @@
       <c r="G199" s="3">
         <v>4</v>
       </c>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>0.4415</v>
       </c>
@@ -4923,9 +4677,8 @@
       <c r="G200" s="3">
         <v>4</v>
       </c>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>0.52049999999999996</v>
       </c>
@@ -4945,9 +4698,8 @@
       <c r="G201" s="3">
         <v>4</v>
       </c>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>0.45240000000000002</v>
       </c>
@@ -4967,9 +4719,8 @@
       <c r="G202" s="3">
         <v>4</v>
       </c>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>0.41539999999999999</v>
       </c>
@@ -4989,9 +4740,8 @@
       <c r="G203" s="3">
         <v>4</v>
       </c>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>0.48970000000000002</v>
       </c>
@@ -5011,9 +4761,8 @@
       <c r="G204" s="3">
         <v>4</v>
       </c>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>0.4899</v>
       </c>
@@ -5033,9 +4782,8 @@
       <c r="G205" s="3">
         <v>4</v>
       </c>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>0.44579999999999997</v>
       </c>
@@ -5055,9 +4803,8 @@
       <c r="G206" s="3">
         <v>4</v>
       </c>
-      <c r="I206" s="3"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>0.49740000000000001</v>
       </c>
@@ -5077,9 +4824,8 @@
       <c r="G207" s="3">
         <v>4</v>
       </c>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>0.51129999999999998</v>
       </c>
@@ -5099,9 +4845,8 @@
       <c r="G208" s="3">
         <v>4</v>
       </c>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>0.47360000000000002</v>
       </c>
@@ -5121,9 +4866,8 @@
       <c r="G209" s="3">
         <v>4</v>
       </c>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>0.4592</v>
       </c>
@@ -5143,9 +4887,8 @@
       <c r="G210" s="3">
         <v>4</v>
       </c>
-      <c r="I210" s="3"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>0.48949999999999999</v>
       </c>
@@ -5165,9 +4908,8 @@
       <c r="G211" s="3">
         <v>4</v>
       </c>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>0.44040000000000001</v>
       </c>
@@ -5187,9 +4929,8 @@
       <c r="G212" s="3">
         <v>4</v>
       </c>
-      <c r="I212" s="3"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>0.44330000000000003</v>
       </c>
@@ -5209,9 +4950,8 @@
       <c r="G213" s="3">
         <v>4</v>
       </c>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>0.28560000000000002</v>
       </c>
@@ -5231,9 +4971,8 @@
       <c r="G214" s="3">
         <v>4</v>
       </c>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>0.2949</v>
       </c>
@@ -5253,9 +4992,8 @@
       <c r="G215" s="3">
         <v>4</v>
       </c>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>0.32229999999999998</v>
       </c>
@@ -5275,9 +5013,8 @@
       <c r="G216" s="3">
         <v>4</v>
       </c>
-      <c r="I216" s="3"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>0.32769999999999999</v>
       </c>
@@ -5297,9 +5034,8 @@
       <c r="G217" s="3">
         <v>4</v>
       </c>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>0.32800000000000001</v>
       </c>
@@ -5319,9 +5055,8 @@
       <c r="G218" s="3">
         <v>4</v>
       </c>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>0.30570000000000003</v>
       </c>
@@ -5341,9 +5076,8 @@
       <c r="G219" s="3">
         <v>4</v>
       </c>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>0.30480000000000002</v>
       </c>
@@ -5363,9 +5097,8 @@
       <c r="G220" s="3">
         <v>4</v>
       </c>
-      <c r="I220" s="3"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>0.311</v>
       </c>
@@ -5385,9 +5118,8 @@
       <c r="G221" s="3">
         <v>4</v>
       </c>
-      <c r="I221" s="3"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>0.25059999999999999</v>
       </c>
@@ -5407,9 +5139,8 @@
       <c r="G222" s="3">
         <v>4</v>
       </c>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>0.29220000000000002</v>
       </c>
@@ -5429,9 +5160,8 @@
       <c r="G223" s="3">
         <v>4</v>
       </c>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>0.2747</v>
       </c>
@@ -5451,9 +5181,8 @@
       <c r="G224" s="3">
         <v>4</v>
       </c>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>0.30380000000000001</v>
       </c>
@@ -5473,9 +5202,8 @@
       <c r="G225" s="3">
         <v>4</v>
       </c>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>0.29020000000000001</v>
       </c>
@@ -5495,9 +5223,8 @@
       <c r="G226" s="3">
         <v>4</v>
       </c>
-      <c r="I226" s="3"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>0.29389999999999999</v>
       </c>
@@ -5517,9 +5244,8 @@
       <c r="G227" s="3">
         <v>4</v>
       </c>
-      <c r="I227" s="3"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>0.30109999999999998</v>
       </c>
@@ -5539,9 +5265,8 @@
       <c r="G228" s="3">
         <v>4</v>
       </c>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>0.31080000000000002</v>
       </c>
@@ -5561,9 +5286,8 @@
       <c r="G229" s="3">
         <v>4</v>
       </c>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>0.29630000000000001</v>
       </c>
@@ -5583,9 +5307,8 @@
       <c r="G230" s="3">
         <v>4</v>
       </c>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>0.29310000000000003</v>
       </c>
@@ -5605,9 +5328,8 @@
       <c r="G231" s="3">
         <v>4</v>
       </c>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>0.23760000000000001</v>
       </c>
@@ -5627,9 +5349,8 @@
       <c r="G232" s="3">
         <v>4</v>
       </c>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>0.30080000000000001</v>
       </c>
@@ -5649,9 +5370,8 @@
       <c r="G233" s="3">
         <v>4</v>
       </c>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>0.32319999999999999</v>
       </c>
@@ -5671,9 +5391,8 @@
       <c r="G234" s="3">
         <v>4</v>
       </c>
-      <c r="I234" s="3"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>0.31530000000000002</v>
       </c>
@@ -5693,9 +5412,8 @@
       <c r="G235" s="3">
         <v>4</v>
       </c>
-      <c r="I235" s="3"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>0.28220000000000001</v>
       </c>
@@ -5716,7 +5434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>0.28760000000000002</v>
       </c>
@@ -5737,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>0.1147</v>
       </c>
@@ -5757,7 +5475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>0.12839999999999999</v>
       </c>
@@ -5777,7 +5495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>0.14560000000000001</v>
       </c>
@@ -6581,7 +6299,7 @@
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C278" s="5" t="s">
         <v>5</v>
@@ -6604,7 +6322,7 @@
         <v>9.6600000000000005E-2</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>5</v>
@@ -6627,7 +6345,7 @@
         <v>0.1358</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>5</v>
@@ -6650,7 +6368,7 @@
         <v>0.22639999999999999</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>5</v>
@@ -6673,7 +6391,7 @@
         <v>0.39200000000000002</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -6696,7 +6414,7 @@
         <v>0.71940000000000004</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -6719,7 +6437,7 @@
         <v>1.0475000000000001</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>5</v>
@@ -6742,7 +6460,7 @@
         <v>1.7239</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -6765,7 +6483,7 @@
         <v>2.2734000000000001</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C286" s="5" t="s">
         <v>5</v>
@@ -9924,7 +9642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>0.16769999999999999</v>
       </c>
@@ -9945,7 +9663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>0.17480000000000001</v>
       </c>
@@ -9966,7 +9684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>0.16309999999999999</v>
       </c>
@@ -9987,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>0.14829999999999999</v>
       </c>
@@ -10008,7 +9726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
         <v>0.1615</v>
       </c>
@@ -10029,7 +9747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>0.16769999999999999</v>
       </c>
@@ -10050,7 +9768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
         <v>0.2452</v>
       </c>
@@ -10071,7 +9789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>0.16589999999999999</v>
       </c>
@@ -10092,7 +9810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
         <v>0.19800000000000001</v>
       </c>
@@ -10113,7 +9831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>0.17080000000000001</v>
       </c>
@@ -10134,7 +9852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
         <v>0.13389999999999999</v>
       </c>
@@ -10155,7 +9873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>0.12939999999999999</v>
       </c>
@@ -10176,7 +9894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
         <v>0.151</v>
       </c>
@@ -10197,7 +9915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>0.1241</v>
       </c>
@@ -10217,9 +9935,8 @@
       <c r="G446" s="1">
         <v>5</v>
       </c>
-      <c r="H446" s="1"/>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="6">
         <v>5.28E-2</v>
       </c>
@@ -10241,9 +9958,8 @@
       <c r="G447" s="3">
         <v>6</v>
       </c>
-      <c r="H447" s="3"/>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="6">
         <v>9.7699999999999995E-2</v>
       </c>
@@ -10265,9 +9981,8 @@
       <c r="G448" s="3">
         <v>6</v>
       </c>
-      <c r="H448" s="3"/>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="6">
         <v>0.13519999999999999</v>
       </c>
@@ -10289,9 +10004,8 @@
       <c r="G449" s="3">
         <v>6</v>
       </c>
-      <c r="H449" s="3"/>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="6">
         <v>0.23980000000000001</v>
       </c>
@@ -10313,9 +10027,8 @@
       <c r="G450" s="3">
         <v>6</v>
       </c>
-      <c r="H450" s="3"/>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="6">
         <v>0.38090000000000002</v>
       </c>
@@ -10337,9 +10050,8 @@
       <c r="G451" s="3">
         <v>6</v>
       </c>
-      <c r="H451" s="3"/>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="6">
         <v>0.69730000000000003</v>
       </c>
@@ -10361,9 +10073,8 @@
       <c r="G452" s="3">
         <v>6</v>
       </c>
-      <c r="H452" s="3"/>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="6">
         <v>1.0425</v>
       </c>
@@ -10385,9 +10096,8 @@
       <c r="G453" s="3">
         <v>6</v>
       </c>
-      <c r="H453" s="3"/>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="6">
         <v>1.7022999999999999</v>
       </c>
@@ -10409,9 +10119,8 @@
       <c r="G454" s="3">
         <v>6</v>
       </c>
-      <c r="H454" s="3"/>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="6">
         <v>2.3287</v>
       </c>
@@ -10433,9 +10142,8 @@
       <c r="G455" s="3">
         <v>6</v>
       </c>
-      <c r="H455" s="3"/>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="6">
         <v>0.78380000000000005</v>
       </c>
@@ -10454,9 +10162,8 @@
       <c r="G456" s="3">
         <v>6</v>
       </c>
-      <c r="H456" s="3"/>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="6">
         <v>0.88390000000000002</v>
       </c>
@@ -10475,9 +10182,8 @@
       <c r="G457" s="3">
         <v>6</v>
       </c>
-      <c r="H457" s="3"/>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="6">
         <v>0.99299999999999999</v>
       </c>
@@ -10497,9 +10203,8 @@
       <c r="G458" s="3">
         <v>6</v>
       </c>
-      <c r="H458" s="3"/>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="6">
         <v>0.995</v>
       </c>
@@ -10519,9 +10224,8 @@
       <c r="G459" s="3">
         <v>6</v>
       </c>
-      <c r="H459" s="3"/>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="6">
         <v>1.1601999999999999</v>
       </c>
@@ -10541,9 +10245,8 @@
       <c r="G460" s="3">
         <v>6</v>
       </c>
-      <c r="H460" s="3"/>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="6">
         <v>0.8891</v>
       </c>
@@ -10563,9 +10266,8 @@
       <c r="G461" s="3">
         <v>6</v>
       </c>
-      <c r="H461" s="3"/>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="6">
         <v>1.1468</v>
       </c>
@@ -10585,9 +10287,8 @@
       <c r="G462" s="3">
         <v>6</v>
       </c>
-      <c r="H462" s="3"/>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="6">
         <v>1.0286</v>
       </c>
@@ -10607,9 +10308,8 @@
       <c r="G463" s="3">
         <v>6</v>
       </c>
-      <c r="H463" s="3"/>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="6">
         <v>1.0144</v>
       </c>
@@ -10629,9 +10329,8 @@
       <c r="G464" s="3">
         <v>6</v>
       </c>
-      <c r="H464" s="3"/>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="6">
         <v>1.016</v>
       </c>
@@ -10651,9 +10350,8 @@
       <c r="G465" s="3">
         <v>6</v>
       </c>
-      <c r="H465" s="3"/>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="6">
         <v>1.0569999999999999</v>
       </c>
@@ -10673,9 +10371,8 @@
       <c r="G466" s="3">
         <v>6</v>
       </c>
-      <c r="H466" s="3"/>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="6">
         <v>1.0199</v>
       </c>
@@ -10695,9 +10392,8 @@
       <c r="G467" s="3">
         <v>6</v>
       </c>
-      <c r="H467" s="3"/>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="6">
         <v>1.0864</v>
       </c>
@@ -10717,9 +10413,8 @@
       <c r="G468" s="3">
         <v>6</v>
       </c>
-      <c r="H468" s="3"/>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A469" s="6">
         <v>1.0286999999999999</v>
       </c>
@@ -10739,9 +10434,8 @@
       <c r="G469" s="3">
         <v>6</v>
       </c>
-      <c r="H469" s="3"/>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A470" s="6">
         <v>1.0282</v>
       </c>
@@ -10761,9 +10455,8 @@
       <c r="G470" s="3">
         <v>6</v>
       </c>
-      <c r="H470" s="3"/>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="6">
         <v>0.92390000000000005</v>
       </c>
@@ -10783,9 +10476,8 @@
       <c r="G471" s="3">
         <v>6</v>
       </c>
-      <c r="H471" s="3"/>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="6">
         <v>0.77569999999999995</v>
       </c>
@@ -10805,9 +10497,8 @@
       <c r="G472" s="3">
         <v>6</v>
       </c>
-      <c r="H472" s="3"/>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="6">
         <v>0.80689999999999995</v>
       </c>
@@ -10827,9 +10518,8 @@
       <c r="G473" s="3">
         <v>6</v>
       </c>
-      <c r="H473" s="3"/>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="6">
         <v>0.7843</v>
       </c>
@@ -10849,9 +10539,8 @@
       <c r="G474" s="3">
         <v>6</v>
       </c>
-      <c r="H474" s="3"/>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="6">
         <v>0.79010000000000002</v>
       </c>
@@ -10871,9 +10560,8 @@
       <c r="G475" s="3">
         <v>6</v>
       </c>
-      <c r="H475" s="3"/>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="6">
         <v>0.69820000000000004</v>
       </c>
@@ -10893,9 +10581,8 @@
       <c r="G476" s="3">
         <v>6</v>
       </c>
-      <c r="H476" s="3"/>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="6">
         <v>0.83879999999999999</v>
       </c>
@@ -10915,9 +10602,8 @@
       <c r="G477" s="3">
         <v>6</v>
       </c>
-      <c r="H477" s="3"/>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="6">
         <v>0.82669999999999999</v>
       </c>
@@ -10937,9 +10623,8 @@
       <c r="G478" s="3">
         <v>6</v>
       </c>
-      <c r="H478" s="3"/>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="6">
         <v>0.80410000000000004</v>
       </c>
@@ -10959,9 +10644,8 @@
       <c r="G479" s="3">
         <v>6</v>
       </c>
-      <c r="H479" s="3"/>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="6">
         <v>0.1636</v>
       </c>
@@ -10980,9 +10664,8 @@
       <c r="G480" s="3">
         <v>6</v>
       </c>
-      <c r="H480" s="3"/>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="6">
         <v>0.1928</v>
       </c>
@@ -11001,9 +10684,8 @@
       <c r="G481" s="3">
         <v>6</v>
       </c>
-      <c r="H481" s="3"/>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="6">
         <v>0.17269999999999999</v>
       </c>
@@ -11023,9 +10705,8 @@
       <c r="G482" s="3">
         <v>6</v>
       </c>
-      <c r="H482" s="3"/>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="6">
         <v>0.1686</v>
       </c>
@@ -11045,9 +10726,8 @@
       <c r="G483" s="3">
         <v>6</v>
       </c>
-      <c r="H483" s="3"/>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="6">
         <v>0.18479999999999999</v>
       </c>
@@ -11067,9 +10747,8 @@
       <c r="G484" s="3">
         <v>6</v>
       </c>
-      <c r="H484" s="3"/>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="6">
         <v>0.16919999999999999</v>
       </c>
@@ -11089,9 +10768,8 @@
       <c r="G485" s="3">
         <v>6</v>
       </c>
-      <c r="H485" s="3"/>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="6">
         <v>0.1772</v>
       </c>
@@ -11111,9 +10789,8 @@
       <c r="G486" s="3">
         <v>6</v>
       </c>
-      <c r="H486" s="3"/>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="6">
         <v>0.15809999999999999</v>
       </c>
@@ -11133,9 +10810,8 @@
       <c r="G487" s="3">
         <v>6</v>
       </c>
-      <c r="H487" s="3"/>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="6">
         <v>0.18</v>
       </c>
@@ -11155,9 +10831,8 @@
       <c r="G488" s="3">
         <v>6</v>
       </c>
-      <c r="H488" s="3"/>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="6">
         <v>0.1769</v>
       </c>
@@ -11177,9 +10852,8 @@
       <c r="G489" s="3">
         <v>6</v>
       </c>
-      <c r="H489" s="3"/>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="6">
         <v>0.17630000000000001</v>
       </c>
@@ -11199,9 +10873,8 @@
       <c r="G490" s="3">
         <v>6</v>
       </c>
-      <c r="H490" s="3"/>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="6">
         <v>0.18049999999999999</v>
       </c>
@@ -11221,9 +10894,8 @@
       <c r="G491" s="3">
         <v>6</v>
       </c>
-      <c r="H491" s="3"/>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="6">
         <v>0.1903</v>
       </c>
@@ -11243,9 +10915,8 @@
       <c r="G492" s="3">
         <v>6</v>
       </c>
-      <c r="H492" s="3"/>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="6">
         <v>0.20610000000000001</v>
       </c>
@@ -11265,9 +10936,8 @@
       <c r="G493" s="3">
         <v>6</v>
       </c>
-      <c r="H493" s="3"/>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="6">
         <v>0.17860000000000001</v>
       </c>
@@ -11287,9 +10957,8 @@
       <c r="G494" s="3">
         <v>6</v>
       </c>
-      <c r="H494" s="3"/>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="6">
         <v>0.17319999999999999</v>
       </c>
@@ -11309,9 +10978,8 @@
       <c r="G495" s="3">
         <v>6</v>
       </c>
-      <c r="H495" s="3"/>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="6">
         <v>0.18290000000000001</v>
       </c>
@@ -11331,9 +10999,8 @@
       <c r="G496" s="3">
         <v>6</v>
       </c>
-      <c r="H496" s="3"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="6">
         <v>0.1804</v>
       </c>
@@ -11353,9 +11020,8 @@
       <c r="G497" s="3">
         <v>6</v>
       </c>
-      <c r="H497" s="3"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="6">
         <v>0.1346</v>
       </c>
@@ -11375,9 +11041,8 @@
       <c r="G498" s="3">
         <v>6</v>
       </c>
-      <c r="H498" s="3"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="6">
         <v>0.1313</v>
       </c>
@@ -11397,9 +11062,8 @@
       <c r="G499" s="3">
         <v>6</v>
       </c>
-      <c r="H499" s="3"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="6">
         <v>0.14660000000000001</v>
       </c>
@@ -11419,9 +11083,8 @@
       <c r="G500" s="3">
         <v>6</v>
       </c>
-      <c r="H500" s="3"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="6">
         <v>0.16309999999999999</v>
       </c>
@@ -11441,9 +11104,8 @@
       <c r="G501" s="3">
         <v>6</v>
       </c>
-      <c r="H501" s="3"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="6">
         <v>0.12470000000000001</v>
       </c>
@@ -11463,9 +11125,8 @@
       <c r="G502" s="3">
         <v>6</v>
       </c>
-      <c r="H502" s="3"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="6">
         <v>0.12559999999999999</v>
       </c>
@@ -11485,9 +11146,8 @@
       <c r="G503" s="3">
         <v>6</v>
       </c>
-      <c r="H503" s="3"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="3">
         <v>0.81920000000000004</v>
       </c>
@@ -11507,7 +11167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>0.84560000000000002</v>
       </c>
@@ -11527,7 +11187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="3">
         <v>0.77510000000000001</v>
       </c>
@@ -11548,7 +11208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>0.84840000000000004</v>
       </c>
@@ -11569,7 +11229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A508" s="3">
         <v>0.87719999999999998</v>
       </c>
@@ -11590,7 +11250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>0.91720000000000002</v>
       </c>
@@ -11611,7 +11271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="3">
         <v>0.82130000000000003</v>
       </c>
@@ -11632,7 +11292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>0.86439999999999995</v>
       </c>
@@ -11653,7 +11313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="3">
         <v>0.75600000000000001</v>
       </c>
@@ -12008,7 +11668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>0.17330000000000001</v>
       </c>
@@ -12029,7 +11689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="3">
         <v>0.18609999999999999</v>
       </c>
@@ -12050,7 +11710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>0.14480000000000001</v>
       </c>
@@ -12071,7 +11731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="3">
         <v>0.14829999999999999</v>
       </c>
@@ -12092,7 +11752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>0.127</v>
       </c>
@@ -12113,7 +11773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="3">
         <v>0.12130000000000001</v>
       </c>
@@ -12134,7 +11794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>0.12</v>
       </c>
@@ -12155,36 +11815,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G536" s="3"/>
-      <c r="H536" s="3"/>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G537" s="3"/>
-      <c r="H537" s="3"/>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G538" s="3"/>
-      <c r="H538" s="3"/>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G539" s="3"/>
-      <c r="H539" s="3"/>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G540" s="3"/>
-      <c r="H540" s="3"/>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G541" s="3"/>
-      <c r="H541" s="3"/>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G542" s="3"/>
-      <c r="H542" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/oster_data_2022/enz_act.xlsx
+++ b/oster_data_2022/enz_act.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant species coexistence\functions_and_coex\oster_data_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant_species_coexistence\functions_and_coex\oster_data_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A235395-D804-48C3-BF31-54E79D622D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385573A-94CA-4743-9577-1DCD9090AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="14">
   <si>
     <t>Abs</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>cali_group</t>
+  </si>
+  <si>
+    <t>cali</t>
   </si>
 </sst>
 </file>
@@ -430,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C447" sqref="C447:C455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -471,7 +474,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
@@ -517,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -540,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>5</v>
@@ -563,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>5</v>
@@ -586,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -609,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>5</v>
@@ -632,7 +635,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>5</v>
@@ -655,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>5</v>
@@ -4418,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>5</v>
@@ -4441,7 +4444,7 @@
         <v>2</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>5</v>
@@ -4464,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>5</v>
@@ -4487,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>5</v>
@@ -4510,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>5</v>
@@ -4533,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>5</v>
@@ -4556,7 +4559,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>5</v>
@@ -4579,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>5</v>
@@ -4602,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>5</v>
@@ -6302,7 +6305,7 @@
         <v>9</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>5</v>
@@ -6325,7 +6328,7 @@
         <v>9</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>5</v>
@@ -6348,7 +6351,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>5</v>
@@ -6371,7 +6374,7 @@
         <v>9</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D281" s="5" t="s">
         <v>5</v>
@@ -6394,7 +6397,7 @@
         <v>9</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>5</v>
@@ -6417,7 +6420,7 @@
         <v>9</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>5</v>
@@ -6440,7 +6443,7 @@
         <v>9</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>5</v>
@@ -6463,7 +6466,7 @@
         <v>9</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>5</v>
@@ -6486,7 +6489,7 @@
         <v>9</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>5</v>
@@ -9944,7 +9947,7 @@
         <v>9</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>5</v>
@@ -9967,7 +9970,7 @@
         <v>9</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>5</v>
@@ -9990,7 +9993,7 @@
         <v>9</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>5</v>
@@ -10013,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>5</v>
@@ -10036,7 +10039,7 @@
         <v>9</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>5</v>
@@ -10059,7 +10062,7 @@
         <v>9</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>5</v>
@@ -10082,7 +10085,7 @@
         <v>9</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>5</v>
@@ -10105,7 +10108,7 @@
         <v>9</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>5</v>
@@ -10128,7 +10131,7 @@
         <v>9</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>5</v>

--- a/oster_data_2022/enz_act.xlsx
+++ b/oster_data_2022/enz_act.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathis\Documents\Fac\Cesure2\Plant_species_coexistence\functions_and_coex\oster_data_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0385573A-94CA-4743-9577-1DCD9090AC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7448F6-4105-45E2-93E1-FDDF77B8BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="C447" sqref="C447:C455"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>5</v>
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>5</v>
@@ -1173,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>5</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>5</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>5</v>
@@ -2460,7 +2460,7 @@
         <v>2</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>5</v>
@@ -2506,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>5</v>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>5</v>
@@ -2575,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>5</v>
@@ -2598,7 +2598,7 @@
         <v>2</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>5</v>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>5</v>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>5</v>
